--- a/java/Redis.xlsx
+++ b/java/Redis.xlsx
@@ -22,6 +22,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>远程字典服务</t>
     </r>
     <r>
@@ -249,7 +256,7 @@
     <t>安装gcc环境</t>
   </si>
   <si>
-    <t>yum -y install gcc-c++</t>
+    <t>yum -y install gcc-c++    这个不用yum -y install gcc</t>
   </si>
   <si>
     <t>gcc版本</t>
@@ -266,6 +273,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>运行</t>
     </r>
     <r>
@@ -281,6 +295,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>cd /home/redis-6.0.6
 ls     有redis.conf配置文件
 vim redis.conf    daemonize no改daemonize yes  想是后台启动，里面</t>
@@ -320,6 +341,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>使用</t>
     </r>
     <r>
@@ -1087,7 +1115,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1111,9 +1139,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1465,8 +1490,8 @@
   <sheetPr/>
   <dimension ref="A2:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -1675,7 +1700,7 @@
       </c>
     </row>
     <row r="31" ht="28.8" spans="2:2">
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1700,13 +1725,13 @@
     </row>
     <row r="35" ht="72" spans="1:2">
       <c r="A35" s="7"/>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="2" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="36" ht="57.6" spans="1:2">
       <c r="A36" s="7"/>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="2" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1723,12 +1748,12 @@
       </c>
     </row>
     <row r="39" ht="43.2" spans="2:2">
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="2" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="40" ht="43.2" spans="2:2">
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="2" t="s">
         <v>55</v>
       </c>
     </row>
